--- a/2nd_phase/additional_data/ufe_21.xlsx
+++ b/2nd_phase/additional_data/ufe_21.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>ufe_21</t>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
 </sst>
 </file>
@@ -28,11 +31,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,9 +68,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,13 +107,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -135,8 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +160,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -157,31 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,187 +199,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +390,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,32 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +473,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -490,155 +493,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -959,112 +962,148 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.7809523809524" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
-        <v>81025</v>
+        <v>44501</v>
       </c>
       <c r="B2" s="2">
+        <v>54.62</v>
+      </c>
+      <c r="C2">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B3" s="2">
         <v>46.31</v>
       </c>
+      <c r="C3">
+        <v>5.24</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>80994</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B4" s="2">
         <v>43.96</v>
       </c>
+      <c r="C4">
+        <v>1.55</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
-        <v>80964</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>44409</v>
+      </c>
+      <c r="B5" s="2">
         <v>45.52</v>
       </c>
+      <c r="C5">
+        <v>2.77</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
-        <v>80933</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>44378</v>
+      </c>
+      <c r="B6" s="2">
         <v>44.92</v>
       </c>
+      <c r="C6">
+        <v>2.46</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
-        <v>80902</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B7" s="2">
         <v>42.89</v>
       </c>
+      <c r="C7">
+        <v>4.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
-        <v>80872</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="2">
         <v>38.33</v>
       </c>
+      <c r="C8">
+        <v>3.92</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>80841</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B9" s="2">
         <v>35.17</v>
       </c>
+      <c r="C9">
+        <v>4.34</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
-        <v>80811</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B10" s="2">
         <v>31.2</v>
       </c>
+      <c r="C10">
+        <v>4.13</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
-        <v>80780</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>44228</v>
+      </c>
+      <c r="B11" s="2">
         <v>27.09</v>
       </c>
+      <c r="C11">
+        <v>1.22</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>80752</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>44197</v>
+      </c>
+      <c r="B12" s="2">
         <v>26.16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
-        <v>80721</v>
-      </c>
-      <c r="B12" s="2">
-        <v>25.15</v>
+      <c r="C12">
+        <v>2.66</v>
       </c>
     </row>
   </sheetData>
